--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efnb2-Rhbdl2.xlsx
@@ -537,34 +537,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.1993297382896</v>
+        <v>31.910369</v>
       </c>
       <c r="H2">
-        <v>29.1993297382896</v>
+        <v>95.73110699999999</v>
       </c>
       <c r="I2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="J2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.868002769726173</v>
+        <v>1.021610666666667</v>
       </c>
       <c r="N2">
-        <v>0.868002769726173</v>
+        <v>3.064832</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>25.34509908698318</v>
+        <v>32.59997334766933</v>
       </c>
       <c r="R2">
-        <v>25.34509908698318</v>
+        <v>293.399760129024</v>
       </c>
       <c r="S2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
       <c r="T2">
-        <v>0.5691744623946816</v>
+        <v>0.579978174461379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,34 +599,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.1979107735191</v>
+        <v>11.420477</v>
       </c>
       <c r="H3">
-        <v>11.1979107735191</v>
+        <v>34.261431</v>
       </c>
       <c r="I3">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="J3">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.868002769726173</v>
+        <v>1.021610666666667</v>
       </c>
       <c r="N3">
-        <v>0.868002769726173</v>
+        <v>3.064832</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>9.719817566561131</v>
+        <v>11.66728112162133</v>
       </c>
       <c r="R3">
-        <v>9.719817566561131</v>
+        <v>105.005530094592</v>
       </c>
       <c r="S3">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
       <c r="T3">
-        <v>0.218277779030783</v>
+        <v>0.2075697527013294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,34 +661,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371096004150272</v>
+        <v>0.6836493333333333</v>
       </c>
       <c r="H4">
-        <v>0.371096004150272</v>
+        <v>2.050948</v>
       </c>
       <c r="I4">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="J4">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.868002769726173</v>
+        <v>1.021610666666667</v>
       </c>
       <c r="N4">
-        <v>0.868002769726173</v>
+        <v>3.064832</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3221123594367515</v>
+        <v>0.6984234511928888</v>
       </c>
       <c r="R4">
-        <v>0.3221123594367515</v>
+        <v>6.285811060736</v>
       </c>
       <c r="S4">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
       <c r="T4">
-        <v>0.00723367181891409</v>
+        <v>0.01242548126969028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,34 +723,34 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.387740711516154</v>
+        <v>0.4491346666666667</v>
       </c>
       <c r="H5">
-        <v>0.387740711516154</v>
+        <v>1.347404</v>
       </c>
       <c r="I5">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="J5">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.868002769726173</v>
+        <v>1.021610666666667</v>
       </c>
       <c r="N5">
-        <v>0.868002769726173</v>
+        <v>3.064832</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.3365600115316187</v>
+        <v>0.4588407662364445</v>
       </c>
       <c r="R5">
-        <v>0.3365600115316187</v>
+        <v>4.129566896128</v>
       </c>
       <c r="S5">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
       <c r="T5">
-        <v>0.007558122498145594</v>
+        <v>0.00816312415756312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,34 +785,34 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.616499757877066</v>
+        <v>0.6568320000000001</v>
       </c>
       <c r="H6">
-        <v>0.616499757877066</v>
+        <v>1.970496</v>
       </c>
       <c r="I6">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="J6">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.868002769726173</v>
+        <v>1.021610666666667</v>
       </c>
       <c r="N6">
-        <v>0.868002769726173</v>
+        <v>3.064832</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.5351234973728083</v>
+        <v>0.6710265774080001</v>
       </c>
       <c r="R6">
-        <v>0.5351234973728083</v>
+        <v>6.039239196672001</v>
       </c>
       <c r="S6">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
       <c r="T6">
-        <v>0.01201725934811423</v>
+        <v>0.01193807017047708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,34 +847,34 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.52861740667934</v>
+        <v>9.899486</v>
       </c>
       <c r="H7">
-        <v>9.52861740667934</v>
+        <v>29.698458</v>
       </c>
       <c r="I7">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="J7">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.868002769726173</v>
+        <v>1.021610666666667</v>
       </c>
       <c r="N7">
-        <v>0.868002769726173</v>
+        <v>3.064832</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>8.270866300658691</v>
+        <v>10.11342049211733</v>
       </c>
       <c r="R7">
-        <v>8.270866300658691</v>
+        <v>91.02078442905599</v>
       </c>
       <c r="S7">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
       <c r="T7">
-        <v>0.1857387049093616</v>
+        <v>0.1799253972395612</v>
       </c>
     </row>
   </sheetData>
